--- a/vignettes/Alameda-May4-v8 output.xlsx
+++ b/vignettes/Alameda-May4-v8 output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -86,220 +86,265 @@
     <t xml:space="preserve">$all.params</t>
   </si>
   <si>
-    <t xml:space="preserve">       r0.initial latent.period illness.length.given.nonhosp prop.hospitalized hosp.length.of.stay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1:   2.574271             4                            3       0.043527035                  18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2:   1.793005             0                            4       0.084637599                  23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3:   3.996326             2                            4       0.037620719                  17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4:   2.934332             1                            5       0.016961280                   9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5:   6.120791             2                            8       0.034717478                  16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ---                                                                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9996:   3.424709             1                            6       0.025086411                  17</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9997:   2.641475             5                            6       0.052582408                   8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9998:   4.629994             5                            4       0.052749284                  19</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9999:   4.184294             6                            4       0.057032881                   4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000:   3.014694             3                            3       0.002760913                  18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        prop.icu prop.vent intervention1.date intervention1.multiplier intervention1.smooth.days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1: 0.4522037 0.8146784         2020-03-06                0.3933902                         3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2: 0.6040443 0.9049126         2020-03-06                0.5162912                         5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3: 0.4785787 0.7982800         2020-03-06                0.6272024                         4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4: 0.4221481 0.8458649         2020-03-06                0.6729379                         7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5: 0.4894000 0.8549066         2020-03-06                0.3846296                        10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ---                                                                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9996: 0.4381462 0.8991000         2020-03-06                0.6843684                         4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9997: 0.5170023 0.8220893         2020-03-06                0.3081265                        11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9998: 0.4848476 0.8123715         2020-03-06                0.5053716                        11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9999: 0.4802124 0.7861673         2020-03-06                0.4312530                         2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000: 0.4557356 0.9204351         2020-03-06                0.2939671                         8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       intervention2.date intervention2.multiplier intervention2.smooth.days intervention3.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1:         2020-03-16                0.4207271                         9         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2:         2020-03-16                0.5236779                         7         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3:         2020-03-16                0.3016874                         3         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4:         2020-03-16                0.6613289                         4         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5:         2020-03-16                0.7857769                         6         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ---                                                                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9996:         2020-03-16                0.2762090                         6         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9997:         2020-03-16                0.4946962                         9         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9998:         2020-03-16                0.6536209                         4         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9999:         2020-03-16                0.3215398                         6         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000:         2020-03-16                1.2223609                         6         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       intervention3.multiplier intervention3.smooth.days patients.in.hosp.are.infectious use.hosp.rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1:                 1.788350                         7                           FALSE         FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2:                 1.284699                         8                           FALSE         FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3:                 1.454884                         4                            TRUE         FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4:                 2.368237                        12                            TRUE          TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5:                 1.419332                         6                           FALSE         FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ---                                                                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9996:                 1.567420                         3                           FALSE         FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9997:                 1.440978                         7                            TRUE         FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9998:                 1.362914                         3                           FALSE         FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9999:                 2.325578                         7                           FALSE         FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000:                 1.670447                         3                           FALSE          TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       exposed.to.hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1:                  10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2:                   8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3:                   4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4:                   8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5:                   6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ---                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9996:                   9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9997:                  11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9998:                  12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9999:                  12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000:                   8</t>
+    <t xml:space="preserve">       r0.initial latent.period illness.length.given.nonhosp prop.hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:   2.574271             4                            3       0.043527035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:   1.793005             0                            4       0.084637599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:   3.996326             2                            4       0.037620719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:   2.934332             1                            5       0.016961280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:   6.120791             2                            8       0.034717478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ---                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:   3.424709             1                            6       0.025086411</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:   2.641475             5                            6       0.052582408</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:   4.629994             5                            4       0.052749284</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:   4.184294             6                            4       0.057032881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:   3.014694             3                            3       0.002760913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       hosp.length.of.stay  prop.icu prop.vent intervention1.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:                  18 0.4522037 0.8146784         2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:                  23 0.6040443 0.9049126         2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:                  17 0.4785787 0.7982800         2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:                   9 0.4221481 0.8458649         2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:                  16 0.4894000 0.8549066         2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ---                                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:                  17 0.4381462 0.8991000         2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:                   8 0.5170023 0.8220893         2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:                  19 0.4848476 0.8123715         2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:                   4 0.4802124 0.7861673         2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:                  18 0.4557356 0.9204351         2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       intervention1.multiplier intervention1.smooth.days intervention2.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:                0.3933902                         3         2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:                0.5162912                         5         2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:                0.6272024                         4         2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:                0.6729379                         7         2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:                0.3846296                        10         2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ---                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:                0.6843684                         4         2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:                0.3081265                        11         2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:                0.5053716                        11         2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:                0.4312530                         2         2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:                0.2939671                         8         2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       intervention2.multiplier intervention2.smooth.days intervention3.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:                0.4207271                         9         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:                0.5236779                         7         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:                0.3016874                         3         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:                0.6613289                         4         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:                0.7857769                         6         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:                0.2762090                         6         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:                0.4946962                         9         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:                0.6536209                         4         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:                0.3215398                         6         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:                1.2223609                         6         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       intervention3.multiplier intervention3.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:                 1.788350                         7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:                 1.284699                         8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:                 1.454884                         4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:                 2.368237                        12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:                 1.419332                         6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ---                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:                 1.567420                         3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:                 1.440978                         7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:                 1.362914                         3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:                 2.325578                         7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:                 1.670447                         3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       patients.in.hosp.are.infectious use.hosp.rate exposed.to.hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:                           FALSE         FALSE                  10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:                           FALSE         FALSE                   8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:                            TRUE         FALSE                   4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:                            TRUE          TRUE                   8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:                           FALSE         FALSE                   6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ---                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:                           FALSE         FALSE                   9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:                            TRUE         FALSE                  11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:                           FALSE         FALSE                  12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:                           FALSE         FALSE                  12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:                           FALSE          TRUE                   8</t>
   </si>
   <si>
     <t xml:space="preserve">$best.guess.params</t>
   </si>
   <si>
-    <t xml:space="preserve">   r0.initial latent.period illness.length.given.nonhosp prop.hospitalized hosp.length.of.stay prop.icu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:          4             3                            5              0.04                  14     0.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   prop.vent intervention1.date intervention1.multiplier intervention1.smooth.days intervention2.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:      0.85         2020-03-06                     0.45                         7         2020-03-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   intervention2.multiplier intervention2.smooth.days intervention3.date intervention3.multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:                      0.5                         7         2020-06-01                      1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   intervention3.smooth.days patients.in.hosp.are.infectious use.hosp.rate exposed.to.hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:                         7                            TRUE          TRUE                   9</t>
+    <t xml:space="preserve">   r0.initial latent.period illness.length.given.nonhosp prop.hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:          4             3                            5              0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   hosp.length.of.stay prop.icu prop.vent intervention1.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                  14     0.45      0.85         2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   intervention1.multiplier intervention1.smooth.days intervention2.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                     0.45                         7         2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   intervention2.multiplier intervention2.smooth.days intervention3.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                      0.5                         7         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   intervention3.multiplier intervention3.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                      1.5                         7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   patients.in.hosp.are.infectious use.hosp.rate exposed.to.hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                            TRUE          TRUE                   9</t>
   </si>
   <si>
     <t xml:space="preserve">$devlist</t>
   </si>
   <si>
-    <t xml:space="preserve">        RStudioGD quartz_off_screen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                2                 3 </t>
+    <t xml:space="preserve">quartz_off_screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                2 </t>
   </si>
   <si>
     <t xml:space="preserve">$extras</t>
@@ -308,70 +353,136 @@
     <t xml:space="preserve">$extras$`Parameters with Distributions`</t>
   </si>
   <si>
-    <t xml:space="preserve">                      internal.name                                                           external.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:                   weight.labels                                                                    &lt;NA&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:               parameter.weights                                                                  Priors</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:                      r0.initial                       Basic reproductive number R0 before Intervention1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:                   latent.period    Number of Days from Infection to Becoming Infectious (Latent Period)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:    illness.length.given.nonhosp                                       Duration of infectiousness (days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:          infectious.to.hospital             Time from onset of infectiousness to hospitalization (days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:               prop.hospitalized                               Percent of Infected that are Hospitalized</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:             hosp.length.of.stay                                  Average Hospital Length of Stay (Days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:                        prop.icu Percent of Hospitalized COVID-19 Patients That are Currently in the ICU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:                       prop.vent    Percent of COVID-19 Patients in the ICU who are Currently Ventilated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:              intervention1.date                                              Date of first intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:        intervention1.multiplier                                                           Re multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:       intervention1.smooth.days                                                    Days to reach new Re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:              intervention2.date                                             Date of second intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:        intervention2.multiplier                                                           Re multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:       intervention2.smooth.days                                                    Days to reach new Re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:              intervention3.date                                              Date of third intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:        intervention3.multiplier                                                           Re multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:       intervention3.smooth.days                                                    Days to reach new Re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20: patients.in.hosp.are.infectious                                     Patients in hospital are infectious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:                   use.hosp.rate   Contant rate to hospital (if FALSE, fixed number of days to hospital)</t>
+    <t xml:space="preserve">                      internal.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:                   weight.labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:               parameter.weights</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:                      r0.initial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:                   latent.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:    illness.length.given.nonhosp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:          infectious.to.hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:               prop.hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:             hosp.length.of.stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:                        prop.icu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:                       prop.vent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:              intervention1.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:        intervention1.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:       intervention1.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:              intervention2.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:        intervention2.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:       intervention2.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:              intervention3.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:        intervention3.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:       intervention3.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: patients.in.hosp.are.infectious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:                   use.hosp.rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                              external.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:                                                                    &lt;NA&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:                                                                  Priors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:                       Basic reproductive number R0 before Intervention1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:    Number of Days from Infection to Becoming Infectious (Latent Period)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:                                       Duration of infectiousness (days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:             Time from onset of infectiousness to hospitalization (days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:                               Percent of Infected that are Hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:                                  Average Hospital Length of Stay (Days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: Percent of Hospitalized COVID-19 Patients That are Currently in the ICU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:    Percent of COVID-19 Patients in the ICU who are Currently Ventilated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:                                              Date of first intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:                                                           Re multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:                                                    Days to reach new Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:                                             Date of second intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:                                                           Re multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:                                                    Days to reach new Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:                                              Date of third intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:                                                           Re multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:                                                    Days to reach new Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:                                     Patients in hospital are infectious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:   Contant rate to hospital (if FALSE, fixed number of days to hospital)</t>
   </si>
   <si>
     <t xml:space="preserve">           low     midlow        mid    midhigh       high</t>
@@ -611,7 +722,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-04 16:40:49"</t>
+    <t xml:space="preserve">[1] "2020-05-04 23:37:46"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>
@@ -620,7 +731,7 @@
     <t xml:space="preserve">     version </t>
   </si>
   <si>
-    <t xml:space="preserve">"0.3.0.9002" </t>
+    <t xml:space="preserve">"0.3.0.9003" </t>
   </si>
   <si>
     <t xml:space="preserve">$hosp.bounds</t>
@@ -15234,97 +15345,97 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63">
@@ -15374,17 +15485,17 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
@@ -15394,67 +15505,67 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89">
@@ -15474,52 +15585,52 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102">
@@ -15599,272 +15710,272 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>177</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>181</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171">
@@ -15939,437 +16050,437 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>20</v>
+        <v>196</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>20</v>
+        <v>203</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>20</v>
+        <v>204</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>213</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>231</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>234</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>20</v>
+        <v>236</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>236</v>
+        <v>20</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>237</v>
+        <v>20</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>20</v>
+        <v>238</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>20</v>
+        <v>241</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>20</v>
+        <v>247</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>20</v>
+        <v>250</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>20</v>
+        <v>256</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>20</v>
+        <v>259</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>20</v>
+        <v>262</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>20</v>
+        <v>265</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>20</v>
+        <v>268</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>20</v>
+        <v>271</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>261</v>
+        <v>20</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>20</v>
+        <v>272</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
     </row>
     <row r="272">
@@ -16379,12 +16490,12 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
     </row>
     <row r="275">
@@ -16394,12 +16505,12 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="278">
@@ -16409,12 +16520,12 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
     </row>
     <row r="281">
@@ -16424,57 +16535,57 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>20</v>
+        <v>281</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>269</v>
+        <v>20</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>20</v>
+        <v>284</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>271</v>
+        <v>20</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>20</v>
+        <v>286</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>273</v>
+        <v>20</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>20</v>
+        <v>288</v>
       </c>
     </row>
     <row r="293">
@@ -16484,66 +16595,261 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>277</v>
+        <v>20</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>280</v>
+        <v>20</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>283</v>
+        <v>20</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>286</v>
+        <v>20</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
         <v>20</v>
       </c>
     </row>

--- a/vignettes/Alameda-May4-v8 output.xlsx
+++ b/vignettes/Alameda-May4-v8 output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="332">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -86,193 +86,226 @@
     <t xml:space="preserve">$all.params</t>
   </si>
   <si>
-    <t xml:space="preserve">       r0.initial latent.period illness.length.given.nonhosp prop.hospitalized hosp.length.of.stay</t>
+    <t xml:space="preserve">       r0.initial latent.period illness.length.given.nonhosp prop.hospitalized</t>
   </si>
   <si>
-    <t xml:space="preserve">    1:   2.574271             4                            3       0.043527035                  18</t>
+    <t xml:space="preserve">    1:   2.574271             4                            3       0.043527035</t>
   </si>
   <si>
-    <t xml:space="preserve">    2:   1.793005             0                            4       0.084637599                  23</t>
+    <t xml:space="preserve">    2:   1.793005             0                            4       0.084637599</t>
   </si>
   <si>
-    <t xml:space="preserve">    3:   3.996326             2                            4       0.037620719                  17</t>
+    <t xml:space="preserve">    3:   3.996326             2                            4       0.037620719</t>
   </si>
   <si>
-    <t xml:space="preserve">    4:   2.934332             1                            5       0.016961280                   9</t>
+    <t xml:space="preserve">    4:   2.934332             1                            5       0.016961280</t>
   </si>
   <si>
-    <t xml:space="preserve">    5:   6.120791             2                            8       0.034717478                  16</t>
+    <t xml:space="preserve">    5:   6.120791             2                            8       0.034717478</t>
   </si>
   <si>
-    <t xml:space="preserve">   ---                                                                                            </t>
+    <t xml:space="preserve">   ---                                                                        </t>
   </si>
   <si>
-    <t xml:space="preserve"> 9996:   3.424709             1                            6       0.025086411                  17</t>
+    <t xml:space="preserve"> 9996:   3.424709             1                            6       0.025086411</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9997:   2.641475             5                            6       0.052582408                   8</t>
+    <t xml:space="preserve"> 9997:   2.641475             5                            6       0.052582408</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9998:   4.629994             5                            4       0.052749284                  19</t>
+    <t xml:space="preserve"> 9998:   4.629994             5                            4       0.052749284</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9999:   4.184294             6                            4       0.057032881                   4</t>
+    <t xml:space="preserve"> 9999:   4.184294             6                            4       0.057032881</t>
   </si>
   <si>
-    <t xml:space="preserve">10000:   3.014694             3                            3       0.002760913                  18</t>
+    <t xml:space="preserve">10000:   3.014694             3                            3       0.002760913</t>
   </si>
   <si>
-    <t xml:space="preserve">        prop.icu prop.vent intervention1.date intervention1.multiplier intervention1.smooth.days</t>
+    <t xml:space="preserve">       hosp.length.of.stay  prop.icu prop.vent intervention1.date</t>
   </si>
   <si>
-    <t xml:space="preserve">    1: 0.4522037 0.8146784         2020-03-07                0.3933902                         3</t>
+    <t xml:space="preserve">    1:                  18 0.4522037 0.8146784         2020-03-07</t>
   </si>
   <si>
-    <t xml:space="preserve">    2: 0.6040443 0.9049126         2020-03-07                0.5162912                         5</t>
+    <t xml:space="preserve">    2:                  23 0.6040443 0.9049126         2020-03-07</t>
   </si>
   <si>
-    <t xml:space="preserve">    3: 0.4785787 0.7982800         2020-03-07                0.6272024                         4</t>
+    <t xml:space="preserve">    3:                  17 0.4785787 0.7982800         2020-03-07</t>
   </si>
   <si>
-    <t xml:space="preserve">    4: 0.4221481 0.8458649         2020-03-07                0.6729379                         7</t>
+    <t xml:space="preserve">    4:                   9 0.4221481 0.8458649         2020-03-07</t>
   </si>
   <si>
-    <t xml:space="preserve">    5: 0.4894000 0.8549066         2020-03-07                0.3846296                        10</t>
+    <t xml:space="preserve">    5:                  16 0.4894000 0.8549066         2020-03-07</t>
   </si>
   <si>
-    <t xml:space="preserve">   ---                                                                                          </t>
+    <t xml:space="preserve">   ---                                                           </t>
   </si>
   <si>
-    <t xml:space="preserve"> 9996: 0.4381462 0.8991000         2020-03-07                0.6843684                         4</t>
+    <t xml:space="preserve"> 9996:                  17 0.4381462 0.8991000         2020-03-07</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9997: 0.5170023 0.8220893         2020-03-07                0.3081265                        11</t>
+    <t xml:space="preserve"> 9997:                   8 0.5170023 0.8220893         2020-03-07</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9998: 0.4848476 0.8123715         2020-03-07                0.5053716                        11</t>
+    <t xml:space="preserve"> 9998:                  19 0.4848476 0.8123715         2020-03-07</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9999: 0.4802124 0.7861673         2020-03-07                0.4312530                         2</t>
+    <t xml:space="preserve"> 9999:                   4 0.4802124 0.7861673         2020-03-07</t>
   </si>
   <si>
-    <t xml:space="preserve">10000: 0.4557356 0.9204351         2020-03-07                0.2939671                         8</t>
+    <t xml:space="preserve">10000:                  18 0.4557356 0.9204351         2020-03-07</t>
   </si>
   <si>
-    <t xml:space="preserve">       intervention2.date intervention2.multiplier intervention2.smooth.days intervention3.date</t>
+    <t xml:space="preserve">       intervention1.multiplier intervention1.smooth.days intervention2.date</t>
   </si>
   <si>
-    <t xml:space="preserve">    1:         2020-03-17                0.4055601                         9         2020-06-01</t>
+    <t xml:space="preserve">    1:                0.3933902                         3         2020-03-17</t>
   </si>
   <si>
-    <t xml:space="preserve">    2:         2020-03-17                0.5106207                         7         2020-06-01</t>
+    <t xml:space="preserve">    2:                0.5162912                         5         2020-03-17</t>
   </si>
   <si>
-    <t xml:space="preserve">    3:         2020-03-17                0.2840808                         3         2020-06-01</t>
+    <t xml:space="preserve">    3:                0.6272024                         4         2020-03-17</t>
   </si>
   <si>
-    <t xml:space="preserve">    4:         2020-03-17                0.6510927                         4         2020-06-01</t>
+    <t xml:space="preserve">    4:                0.6729379                         7         2020-03-17</t>
   </si>
   <si>
-    <t xml:space="preserve">    5:         2020-03-17                0.7780911                         6         2020-06-01</t>
+    <t xml:space="preserve">    5:                0.3846296                        10         2020-03-17</t>
   </si>
   <si>
-    <t xml:space="preserve">   ---                                                                                         </t>
+    <t xml:space="preserve">   ---                                                                      </t>
   </si>
   <si>
-    <t xml:space="preserve"> 9996:         2020-03-17                0.2580803                         6         2020-06-01</t>
+    <t xml:space="preserve"> 9996:                0.6843684                         4         2020-03-17</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9997:         2020-03-17                0.4810451                         9         2020-06-01</t>
+    <t xml:space="preserve"> 9997:                0.3081265                        11         2020-03-17</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9998:         2020-03-17                0.6432268                         4         2020-06-01</t>
+    <t xml:space="preserve"> 9998:                0.5053716                        11         2020-03-17</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9999:         2020-03-17                0.3043401                         6         2020-06-01</t>
+    <t xml:space="preserve"> 9999:                0.4312530                         2         2020-03-17</t>
   </si>
   <si>
-    <t xml:space="preserve">10000:         2020-03-17                1.2236223                         6         2020-06-01</t>
+    <t xml:space="preserve">10000:                0.2939671                         8         2020-03-17</t>
   </si>
   <si>
-    <t xml:space="preserve">       intervention3.multiplier intervention3.smooth.days patients.in.hosp.are.infectious use.hosp.rate</t>
+    <t xml:space="preserve">       intervention2.multiplier intervention2.smooth.days intervention3.date</t>
   </si>
   <si>
-    <t xml:space="preserve">    1:                 1.788350                         7                           FALSE         FALSE</t>
+    <t xml:space="preserve">    1:                0.4055601                         9         2020-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">    2:                 1.284699                         8                           FALSE         FALSE</t>
+    <t xml:space="preserve">    2:                0.5106207                         7         2020-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">    3:                 1.454884                         4                            TRUE         FALSE</t>
+    <t xml:space="preserve">    3:                0.2840808                         3         2020-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">    4:                 2.368237                        12                            TRUE          TRUE</t>
+    <t xml:space="preserve">    4:                0.6510927                         4         2020-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">    5:                 1.419332                         6                           FALSE         FALSE</t>
+    <t xml:space="preserve">    5:                0.7780911                         6         2020-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">   ---                                                                                                 </t>
+    <t xml:space="preserve"> 9996:                0.2580803                         6         2020-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9996:                 1.567420                         3                           FALSE         FALSE</t>
+    <t xml:space="preserve"> 9997:                0.4810451                         9         2020-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9997:                 1.440978                         7                            TRUE         FALSE</t>
+    <t xml:space="preserve"> 9998:                0.6432268                         4         2020-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9998:                 1.362914                         3                           FALSE         FALSE</t>
+    <t xml:space="preserve"> 9999:                0.3043401                         6         2020-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9999:                 2.325578                         7                           FALSE         FALSE</t>
+    <t xml:space="preserve">10000:                1.2236223                         6         2020-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">10000:                 1.670447                         3                           FALSE          TRUE</t>
+    <t xml:space="preserve">       intervention3.multiplier intervention3.smooth.days</t>
   </si>
   <si>
-    <t xml:space="preserve">       exposed.to.hospital</t>
+    <t xml:space="preserve">    1:                 1.788350                         7</t>
   </si>
   <si>
-    <t xml:space="preserve">    1:                  10</t>
+    <t xml:space="preserve">    2:                 1.284699                         8</t>
   </si>
   <si>
-    <t xml:space="preserve">    2:                   8</t>
+    <t xml:space="preserve">    3:                 1.454884                         4</t>
   </si>
   <si>
-    <t xml:space="preserve">    3:                   4</t>
+    <t xml:space="preserve">    4:                 2.368237                        12</t>
   </si>
   <si>
-    <t xml:space="preserve">    4:                   8</t>
+    <t xml:space="preserve">    5:                 1.419332                         6</t>
   </si>
   <si>
-    <t xml:space="preserve">    5:                   6</t>
+    <t xml:space="preserve">   ---                                                   </t>
   </si>
   <si>
-    <t xml:space="preserve">   ---                    </t>
+    <t xml:space="preserve"> 9996:                 1.567420                         3</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9996:                   9</t>
+    <t xml:space="preserve"> 9997:                 1.440978                         7</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9997:                  11</t>
+    <t xml:space="preserve"> 9998:                 1.362914                         3</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9998:                  12</t>
+    <t xml:space="preserve"> 9999:                 2.325578                         7</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9999:                  12</t>
+    <t xml:space="preserve">10000:                 1.670447                         3</t>
   </si>
   <si>
-    <t xml:space="preserve">10000:                   8</t>
+    <t xml:space="preserve">       patients.in.hosp.are.infectious use.hosp.rate exposed.to.hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:                           FALSE         FALSE                  10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:                           FALSE         FALSE                   8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:                            TRUE         FALSE                   4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:                            TRUE          TRUE                   8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:                           FALSE         FALSE                   6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ---                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:                           FALSE         FALSE                   9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:                            TRUE         FALSE                  11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:                           FALSE         FALSE                  12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:                           FALSE         FALSE                  12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:                           FALSE          TRUE                   8</t>
   </si>
   <si>
     <t xml:space="preserve">$devlist</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf </t>
+    <t xml:space="preserve">quartz_off_screen </t>
   </si>
   <si>
-    <t xml:space="preserve">  2 </t>
+    <t xml:space="preserve">                2 </t>
   </si>
   <si>
     <t xml:space="preserve">$extras</t>
@@ -347,136 +380,136 @@
     <t xml:space="preserve">21:                   use.hosp.rate</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                              external.name        low     midlow</t>
+    <t xml:space="preserve">                                                              external.name</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1:                                                                    &lt;NA&gt;         NA         NA</t>
+    <t xml:space="preserve"> 1:                                                                    &lt;NA&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2:                                                                  Priors        0.2        0.2</t>
+    <t xml:space="preserve"> 2:                                                                  Priors</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3:                       Basic reproductive number R0 before Intervention1        2.5          3</t>
+    <t xml:space="preserve"> 3:                       Basic reproductive number R0 before Intervention1</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4:    Number of Days from Infection to Becoming Infectious (Latent Period)          0          2</t>
+    <t xml:space="preserve"> 4:    Number of Days from Infection to Becoming Infectious (Latent Period)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5:                                       Duration of infectiousness (days)          3          4</t>
+    <t xml:space="preserve"> 5:                                       Duration of infectiousness (days)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6:             Time from onset of infectiousness to hospitalization (days)          4          5</t>
+    <t xml:space="preserve"> 6:             Time from onset of infectiousness to hospitalization (days)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7:                               Percent of Infected that are Hospitalized       0.01       0.02</t>
+    <t xml:space="preserve"> 7:                               Percent of Infected that are Hospitalized</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8:                                  Average Hospital Length of Stay (Days)          6         10</t>
+    <t xml:space="preserve"> 8:                                  Average Hospital Length of Stay (Days)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9: Percent of Hospitalized COVID-19 Patients That are Currently in the ICU        0.4       0.42</t>
+    <t xml:space="preserve"> 9: Percent of Hospitalized COVID-19 Patients That are Currently in the ICU</t>
   </si>
   <si>
-    <t xml:space="preserve">10:    Percent of COVID-19 Patients in the ICU who are Currently Ventilated        0.8       0.82</t>
+    <t xml:space="preserve">10:    Percent of COVID-19 Patients in the ICU who are Currently Ventilated</t>
   </si>
   <si>
-    <t xml:space="preserve">11:                                              Date of first intervention 2020-03-07 2020-03-07</t>
+    <t xml:space="preserve">11:                                              Date of first intervention</t>
   </si>
   <si>
-    <t xml:space="preserve">12:                                                           Re multiplier       0.35        0.4</t>
+    <t xml:space="preserve">12:                                                           Re multiplier</t>
   </si>
   <si>
-    <t xml:space="preserve">13:                                                    Days to reach new Re          3          5</t>
+    <t xml:space="preserve">13:                                                    Days to reach new Re</t>
   </si>
   <si>
-    <t xml:space="preserve">14:                                             Date of second intervention 2020-03-17 2020-03-17</t>
+    <t xml:space="preserve">14:                                             Date of second intervention</t>
   </si>
   <si>
-    <t xml:space="preserve">15:                                                           Re multiplier        0.3        0.4</t>
+    <t xml:space="preserve">15:                                                           Re multiplier</t>
   </si>
   <si>
-    <t xml:space="preserve">16:                                                    Days to reach new Re          3          5</t>
+    <t xml:space="preserve">16:                                                    Days to reach new Re</t>
   </si>
   <si>
-    <t xml:space="preserve">17:                                              Date of third intervention 2020-06-01 2020-06-01</t>
+    <t xml:space="preserve">17:                                              Date of third intervention</t>
   </si>
   <si>
-    <t xml:space="preserve">18:                                                           Re multiplier        1.1        1.2</t>
+    <t xml:space="preserve">18:                                                           Re multiplier</t>
   </si>
   <si>
-    <t xml:space="preserve">19:                                                    Days to reach new Re          3          5</t>
+    <t xml:space="preserve">19:                                                    Days to reach new Re</t>
   </si>
   <si>
-    <t xml:space="preserve">20:                                     Patients in hospital are infectious      FALSE      FALSE</t>
+    <t xml:space="preserve">20:                                     Patients in hospital are infectious</t>
   </si>
   <si>
-    <t xml:space="preserve">21:   Contant rate to hospital (if FALSE, fixed number of days to hospital)      FALSE      FALSE</t>
+    <t xml:space="preserve">21:   Contant rate to hospital (if FALSE, fixed number of days to hospital)</t>
   </si>
   <si>
-    <t xml:space="preserve">                    mid    midhigh       high</t>
+    <t xml:space="preserve">           low     midlow                 mid    midhigh       high</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1: User's "Best Guess"         NA         NA</t>
+    <t xml:space="preserve"> 1:         NA         NA User's "Best Guess"         NA         NA</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2:                 0.2        0.2        0.2</t>
+    <t xml:space="preserve"> 2:        0.2        0.2                 0.2        0.2        0.2</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3:                   4          4        4.5</t>
+    <t xml:space="preserve"> 3:        2.5          3                   4          4        4.5</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4:                   3          4          5</t>
+    <t xml:space="preserve"> 4:          0          2                   3          4          5</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5:                   5          6          7</t>
+    <t xml:space="preserve"> 5:          3          4                   5          6          7</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6:                   6          7          8</t>
+    <t xml:space="preserve"> 6:          4          5                   6          7          8</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7:                0.04       0.05       0.06</t>
+    <t xml:space="preserve"> 7:       0.01       0.02                0.04       0.05       0.06</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8:                  14         18         22</t>
+    <t xml:space="preserve"> 8:          6         10                  14         18         22</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9:                0.45       0.52       0.55</t>
+    <t xml:space="preserve"> 9:        0.4       0.42                0.45       0.52       0.55</t>
   </si>
   <si>
-    <t xml:space="preserve">10:                0.85       0.87        0.9</t>
+    <t xml:space="preserve">10:        0.8       0.82                0.85       0.87        0.9</t>
   </si>
   <si>
-    <t xml:space="preserve">11:          2020-03-07 2020-03-07 2020-03-07</t>
+    <t xml:space="preserve">11: 2020-03-07 2020-03-07          2020-03-07 2020-03-07 2020-03-07</t>
   </si>
   <si>
-    <t xml:space="preserve">12:                0.45       0.55        0.7</t>
+    <t xml:space="preserve">12:       0.35        0.4                0.45       0.55        0.7</t>
   </si>
   <si>
-    <t xml:space="preserve">13:                   7          9         11</t>
+    <t xml:space="preserve">13:          3          5                   7          9         11</t>
   </si>
   <si>
-    <t xml:space="preserve">14:          2020-03-17 2020-03-17 2020-03-17</t>
+    <t xml:space="preserve">14: 2020-03-17 2020-03-17          2020-03-17 2020-03-17 2020-03-17</t>
   </si>
   <si>
-    <t xml:space="preserve">15:                0.45        0.8          1</t>
+    <t xml:space="preserve">15:        0.3        0.4                0.45        0.8          1</t>
   </si>
   <si>
-    <t xml:space="preserve">16:                   7          9         11</t>
+    <t xml:space="preserve">16:          3          5                   7          9         11</t>
   </si>
   <si>
-    <t xml:space="preserve">17:          2020-06-01 2020-06-01 2020-06-01</t>
+    <t xml:space="preserve">17: 2020-06-01 2020-06-01          2020-06-01 2020-06-01 2020-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">18:                 1.5        1.7          2</t>
+    <t xml:space="preserve">18:        1.1        1.2                 1.5        1.7          2</t>
   </si>
   <si>
-    <t xml:space="preserve">19:                   7          9         11</t>
+    <t xml:space="preserve">19:          3          5                   7          9         11</t>
   </si>
   <si>
-    <t xml:space="preserve">20:                TRUE      FALSE      FALSE</t>
+    <t xml:space="preserve">20:      FALSE      FALSE                TRUE      FALSE      FALSE</t>
   </si>
   <si>
-    <t xml:space="preserve">21:                TRUE      FALSE      FALSE</t>
+    <t xml:space="preserve">21:      FALSE      FALSE                TRUE      FALSE      FALSE</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$`Model Inputs`</t>
@@ -662,7 +695,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-07 11:52:21"</t>
+    <t xml:space="preserve">[1] "2020-05-07 13:56:09"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>
@@ -947,28 +980,40 @@
     <t xml:space="preserve">$upp.params</t>
   </si>
   <si>
-    <t xml:space="preserve">   r0.initial latent.period illness.length.given.nonhosp prop.hospitalized hosp.length.of.stay prop.icu</t>
+    <t xml:space="preserve">   r0.initial latent.period illness.length.given.nonhosp prop.hospitalized</t>
   </si>
   <si>
-    <t xml:space="preserve">1:          4             3                            5              0.04                  14     0.45</t>
+    <t xml:space="preserve">1:          4             3                            5              0.04</t>
   </si>
   <si>
-    <t xml:space="preserve">   prop.vent intervention1.date intervention1.multiplier intervention1.smooth.days intervention2.date</t>
+    <t xml:space="preserve">   hosp.length.of.stay prop.icu prop.vent intervention1.date</t>
   </si>
   <si>
-    <t xml:space="preserve">1:      0.85         2020-03-07                     0.45                         7         2020-03-17</t>
+    <t xml:space="preserve">1:                  14     0.45      0.85         2020-03-07</t>
   </si>
   <si>
-    <t xml:space="preserve">   intervention2.multiplier intervention2.smooth.days intervention3.date intervention3.multiplier</t>
+    <t xml:space="preserve">   intervention1.multiplier intervention1.smooth.days intervention2.date</t>
   </si>
   <si>
-    <t xml:space="preserve">1:                     0.45                         7         2020-06-01                      1.5</t>
+    <t xml:space="preserve">1:                     0.45                         7         2020-03-17</t>
   </si>
   <si>
-    <t xml:space="preserve">   intervention3.smooth.days patients.in.hosp.are.infectious use.hosp.rate exposed.to.hospital</t>
+    <t xml:space="preserve">   intervention2.multiplier intervention2.smooth.days intervention3.date</t>
   </si>
   <si>
-    <t xml:space="preserve">1:                         7                            TRUE          TRUE                   9</t>
+    <t xml:space="preserve">1:                     0.45                         7         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   intervention3.multiplier intervention3.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                      1.5                         7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   patients.in.hosp.are.infectious use.hosp.rate exposed.to.hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                            TRUE          TRUE                   9</t>
   </si>
 </sst>
 </file>
@@ -32404,97 +32449,97 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63">
@@ -32514,47 +32559,47 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
@@ -32574,72 +32619,72 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92">
@@ -32699,62 +32744,62 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115">
@@ -32814,127 +32859,127 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>163</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151">
@@ -32964,237 +33009,237 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>20</v>
+        <v>192</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>203</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>20</v>
+        <v>212</v>
       </c>
     </row>
     <row r="203">
@@ -33209,287 +33254,287 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>20</v>
+        <v>220</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>221</v>
+        <v>20</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>224</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>228</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>20</v>
+        <v>252</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>20</v>
+        <v>256</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>20</v>
+        <v>259</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>20</v>
+        <v>262</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="262">
@@ -33499,12 +33544,12 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="265">
@@ -33514,12 +33559,12 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="268">
@@ -33529,12 +33574,12 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="271">
@@ -33544,12 +33589,12 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="274">
@@ -33559,12 +33604,12 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="277">
@@ -33574,12 +33619,12 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="280">
@@ -33589,12 +33634,12 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="283">
@@ -33604,12 +33649,12 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="286">
@@ -33619,12 +33664,12 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="289">
@@ -33634,12 +33679,12 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="292">
@@ -33649,12 +33694,12 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="295">
@@ -33664,12 +33709,12 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="298">
@@ -33679,12 +33724,12 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="301">
@@ -33694,12 +33739,12 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="304">
@@ -33709,57 +33754,57 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>20</v>
+        <v>294</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>290</v>
+        <v>20</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>292</v>
+        <v>20</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>20</v>
+        <v>297</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>294</v>
+        <v>20</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>20</v>
+        <v>299</v>
       </c>
     </row>
     <row r="316">
@@ -33769,67 +33814,67 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>296</v>
+        <v>20</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>300</v>
+        <v>20</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>303</v>
+        <v>20</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>306</v>
+        <v>20</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>307</v>
+        <v>20</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>20</v>
+        <v>307</v>
       </c>
     </row>
     <row r="330">
@@ -33879,6 +33924,86 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
         <v>20</v>
       </c>
     </row>
